--- a/tests/testing_files/conversion_field_creation.xlsx
+++ b/tests/testing_files/conversion_field_creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E48050-C259-44A8-9215-F3BEAD6AC380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3788EE0D-FEF7-4DB5-8450-1A3BE19F3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2775" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4155" yWindow="2340" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>*#measurement.compound</t>
   </si>
   <si>
-    <t>#unique=false</t>
-  </si>
-  <si>
     <t>#measurement.new_assign_field.assign</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>*#measurement.new_prepend_list_field.prepend</t>
+  </si>
+  <si>
+    <t>#match=all</t>
   </si>
 </sst>
 </file>
@@ -343,10 +343,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,7 +645,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,10 +663,10 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,10 +685,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,10 +707,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,10 +729,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,10 +751,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,10 +773,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
         <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
